--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Penk-Oprm1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Penk-Oprm1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,13 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Penk</t>
   </si>
   <si>
     <t>Oprm1</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
+    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.5</v>
+      </c>
+      <c r="G2">
+        <v>0.4026095</v>
+      </c>
+      <c r="H2">
+        <v>0.805219</v>
+      </c>
+      <c r="I2">
+        <v>0.01804598574330544</v>
+      </c>
+      <c r="J2">
+        <v>0.01224043558018516</v>
+      </c>
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>20.908407</v>
-      </c>
-      <c r="H2">
-        <v>62.725221</v>
-      </c>
-      <c r="I2">
-        <v>0.9843255515709016</v>
-      </c>
-      <c r="J2">
-        <v>0.9867193626172466</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.05215766666666666</v>
+        <v>1.896219333333333</v>
       </c>
       <c r="N2">
-        <v>0.156473</v>
+        <v>5.688658</v>
       </c>
       <c r="O2">
-        <v>0.1010355835763341</v>
+        <v>0.9918549325388253</v>
       </c>
       <c r="P2">
-        <v>0.1010355835763341</v>
+        <v>0.9918549325388253</v>
       </c>
       <c r="Q2">
-        <v>1.090533722837</v>
+        <v>0.7634359176836667</v>
       </c>
       <c r="R2">
-        <v>9.814803505533002</v>
+        <v>4.580615506102</v>
       </c>
       <c r="S2">
-        <v>0.099451906532063</v>
+        <v>0.01789899997202282</v>
       </c>
       <c r="T2">
-        <v>0.09969376662810193</v>
+        <v>0.01214073640663039</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>20.908407</v>
+        <v>0.4026095</v>
       </c>
       <c r="H3">
-        <v>62.725221</v>
+        <v>0.805219</v>
       </c>
       <c r="I3">
-        <v>0.9843255515709016</v>
+        <v>0.01804598574330544</v>
       </c>
       <c r="J3">
-        <v>0.9867193626172466</v>
+        <v>0.01224043558018516</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.464073</v>
+        <v>0.01557166666666667</v>
       </c>
       <c r="N3">
-        <v>1.392219</v>
+        <v>0.046715</v>
       </c>
       <c r="O3">
-        <v>0.8989644164236659</v>
+        <v>0.008145067461174712</v>
       </c>
       <c r="P3">
-        <v>0.8989644164236659</v>
+        <v>0.008145067461174714</v>
       </c>
       <c r="Q3">
-        <v>9.703027161710999</v>
+        <v>0.006269300930833333</v>
       </c>
       <c r="R3">
-        <v>87.327244455399</v>
+        <v>0.037615805585</v>
       </c>
       <c r="S3">
-        <v>0.8848736450388386</v>
+        <v>0.0001469857712826198</v>
       </c>
       <c r="T3">
-        <v>0.8870255959891447</v>
+        <v>9.969917355477138E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.17835</v>
+        <v>20.908407</v>
       </c>
       <c r="H4">
-        <v>0.53505</v>
+        <v>62.725221</v>
       </c>
       <c r="I4">
-        <v>0.00839635760498972</v>
+        <v>0.937168185641987</v>
       </c>
       <c r="J4">
-        <v>0.008416776960711829</v>
+        <v>0.9535095755358199</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.05215766666666666</v>
+        <v>1.896219333333333</v>
       </c>
       <c r="N4">
-        <v>0.156473</v>
+        <v>5.688658</v>
       </c>
       <c r="O4">
-        <v>0.1010355835763341</v>
+        <v>0.9918549325388253</v>
       </c>
       <c r="P4">
-        <v>0.1010355835763341</v>
+        <v>0.9918549325388253</v>
       </c>
       <c r="Q4">
-        <v>0.009302319850000001</v>
+        <v>39.646925582602</v>
       </c>
       <c r="R4">
-        <v>0.08372087865000001</v>
+        <v>356.822330243418</v>
       </c>
       <c r="S4">
-        <v>0.0008483308905357273</v>
+        <v>0.9295348875474663</v>
       </c>
       <c r="T4">
-        <v>0.0008503939720573633</v>
+        <v>0.9457431757182047</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +714,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>20.908407</v>
+      </c>
+      <c r="H5">
+        <v>62.725221</v>
+      </c>
+      <c r="I5">
+        <v>0.937168185641987</v>
+      </c>
+      <c r="J5">
+        <v>0.9535095755358199</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.17835</v>
-      </c>
-      <c r="H5">
-        <v>0.53505</v>
-      </c>
-      <c r="I5">
-        <v>0.00839635760498972</v>
-      </c>
-      <c r="J5">
-        <v>0.008416776960711829</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
       <c r="M5">
-        <v>0.464073</v>
+        <v>0.01557166666666667</v>
       </c>
       <c r="N5">
-        <v>1.392219</v>
+        <v>0.046715</v>
       </c>
       <c r="O5">
-        <v>0.8989644164236659</v>
+        <v>0.008145067461174712</v>
       </c>
       <c r="P5">
-        <v>0.8989644164236659</v>
+        <v>0.008145067461174714</v>
       </c>
       <c r="Q5">
-        <v>0.08276741955</v>
+        <v>0.325578744335</v>
       </c>
       <c r="R5">
-        <v>0.74490677595</v>
+        <v>2.930208699015</v>
       </c>
       <c r="S5">
-        <v>0.007548026714453993</v>
+        <v>0.00763329809452069</v>
       </c>
       <c r="T5">
-        <v>0.007566382988654465</v>
+        <v>0.007766399817615319</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +776,61 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1545965</v>
+        <v>0.08491666666666665</v>
       </c>
       <c r="H6">
-        <v>0.309193</v>
+        <v>0.25475</v>
       </c>
       <c r="I6">
-        <v>0.007278090824108737</v>
+        <v>0.003806181811496466</v>
       </c>
       <c r="J6">
-        <v>0.004863860422041627</v>
+        <v>0.003872550155985104</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.05215766666666666</v>
+        <v>1.896219333333333</v>
       </c>
       <c r="N6">
-        <v>0.156473</v>
+        <v>5.688658</v>
       </c>
       <c r="O6">
-        <v>0.1010355835763341</v>
+        <v>0.9918549325388253</v>
       </c>
       <c r="P6">
-        <v>0.1010355835763341</v>
+        <v>0.9918549325388253</v>
       </c>
       <c r="Q6">
-        <v>0.008063392714833332</v>
+        <v>0.1610206250555555</v>
       </c>
       <c r="R6">
-        <v>0.048380356289</v>
+        <v>1.4491856255</v>
       </c>
       <c r="S6">
-        <v>0.0007353461537353887</v>
+        <v>0.003775180203872331</v>
       </c>
       <c r="T6">
-        <v>0.0004914229761748104</v>
+        <v>0.003841007973717823</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +838,309 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.08491666666666665</v>
+      </c>
+      <c r="H7">
+        <v>0.25475</v>
+      </c>
+      <c r="I7">
+        <v>0.003806181811496466</v>
+      </c>
+      <c r="J7">
+        <v>0.003872550155985104</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.01557166666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.046715</v>
+      </c>
+      <c r="O7">
+        <v>0.008145067461174712</v>
+      </c>
+      <c r="P7">
+        <v>0.008145067461174714</v>
+      </c>
+      <c r="Q7">
+        <v>0.001322294027777778</v>
+      </c>
+      <c r="R7">
+        <v>0.01190064625</v>
+      </c>
+      <c r="S7">
+        <v>3.100160762413488E-05</v>
+      </c>
+      <c r="T7">
+        <v>3.154218226728133E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.744457</v>
+      </c>
+      <c r="H8">
+        <v>1.488914</v>
+      </c>
+      <c r="I8">
+        <v>0.03336846350745309</v>
+      </c>
+      <c r="J8">
+        <v>0.02263353932462573</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.896219333333333</v>
+      </c>
+      <c r="N8">
+        <v>5.688658</v>
+      </c>
+      <c r="O8">
+        <v>0.9918549325388253</v>
+      </c>
+      <c r="P8">
+        <v>0.9918549325388253</v>
+      </c>
+      <c r="Q8">
+        <v>1.411653756235334</v>
+      </c>
+      <c r="R8">
+        <v>8.469922537412002</v>
+      </c>
+      <c r="S8">
+        <v>0.03309667512110914</v>
+      </c>
+      <c r="T8">
+        <v>0.02244918761994151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.744457</v>
+      </c>
+      <c r="H9">
+        <v>1.488914</v>
+      </c>
+      <c r="I9">
+        <v>0.03336846350745309</v>
+      </c>
+      <c r="J9">
+        <v>0.02263353932462573</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.01557166666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.046715</v>
+      </c>
+      <c r="O9">
+        <v>0.008145067461174712</v>
+      </c>
+      <c r="P9">
+        <v>0.008145067461174714</v>
+      </c>
+      <c r="Q9">
+        <v>0.01159243625166667</v>
+      </c>
+      <c r="R9">
+        <v>0.06955461751</v>
+      </c>
+      <c r="S9">
+        <v>0.0002717883863439519</v>
+      </c>
+      <c r="T9">
+        <v>0.0001843517046842274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>0.1545965</v>
-      </c>
-      <c r="H7">
-        <v>0.309193</v>
-      </c>
-      <c r="I7">
-        <v>0.007278090824108737</v>
-      </c>
-      <c r="J7">
-        <v>0.004863860422041627</v>
-      </c>
-      <c r="K7">
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.169807</v>
+      </c>
+      <c r="H10">
+        <v>0.509421</v>
+      </c>
+      <c r="I10">
+        <v>0.007611183295757965</v>
+      </c>
+      <c r="J10">
+        <v>0.007743899403384055</v>
+      </c>
+      <c r="K10">
         <v>3</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.464073</v>
-      </c>
-      <c r="N7">
-        <v>1.392219</v>
-      </c>
-      <c r="O7">
-        <v>0.8989644164236659</v>
-      </c>
-      <c r="P7">
-        <v>0.8989644164236659</v>
-      </c>
-      <c r="Q7">
-        <v>0.0717440615445</v>
-      </c>
-      <c r="R7">
-        <v>0.4304643692669999</v>
-      </c>
-      <c r="S7">
-        <v>0.006542744670373348</v>
-      </c>
-      <c r="T7">
-        <v>0.004372437445866816</v>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.896219333333333</v>
+      </c>
+      <c r="N10">
+        <v>5.688658</v>
+      </c>
+      <c r="O10">
+        <v>0.9918549325388253</v>
+      </c>
+      <c r="P10">
+        <v>0.9918549325388253</v>
+      </c>
+      <c r="Q10">
+        <v>0.3219913163353334</v>
+      </c>
+      <c r="R10">
+        <v>2.897921847018</v>
+      </c>
+      <c r="S10">
+        <v>0.00754918969435465</v>
+      </c>
+      <c r="T10">
+        <v>0.007680824820330941</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.169807</v>
+      </c>
+      <c r="H11">
+        <v>0.509421</v>
+      </c>
+      <c r="I11">
+        <v>0.007611183295757965</v>
+      </c>
+      <c r="J11">
+        <v>0.007743899403384055</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.01557166666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.046715</v>
+      </c>
+      <c r="O11">
+        <v>0.008145067461174712</v>
+      </c>
+      <c r="P11">
+        <v>0.008145067461174714</v>
+      </c>
+      <c r="Q11">
+        <v>0.002644178001666667</v>
+      </c>
+      <c r="R11">
+        <v>0.023797602015</v>
+      </c>
+      <c r="S11">
+        <v>6.19936014033147E-05</v>
+      </c>
+      <c r="T11">
+        <v>6.307458305311374E-05</v>
       </c>
     </row>
   </sheetData>
